--- a/metrique.xlsx
+++ b/metrique.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="518">
   <si>
     <t>FichePrescription: 356</t>
   </si>
@@ -33,15 +33,6 @@
     <t>Packages LOC:</t>
   </si>
   <si>
-    <t>java: 3447</t>
-  </si>
-  <si>
-    <t>main: 3447</t>
-  </si>
-  <si>
-    <t>src: 3447</t>
-  </si>
-  <si>
     <t>esante: 3141</t>
   </si>
   <si>
@@ -78,63 +69,12 @@
     <t>Packages imports:</t>
   </si>
   <si>
-    <t>java: 116</t>
-  </si>
-  <si>
-    <t>main: 116</t>
-  </si>
-  <si>
-    <t>src: 116</t>
-  </si>
-  <si>
     <t>esante: 101</t>
   </si>
   <si>
     <t>mini: 101</t>
   </si>
   <si>
-    <t>Blank lines</t>
-  </si>
-  <si>
-    <t>Total blank lines: 529</t>
-  </si>
-  <si>
-    <t>Classes blank lines:</t>
-  </si>
-  <si>
-    <t>menu: 99</t>
-  </si>
-  <si>
-    <t>MiniESanteDAO: 45</t>
-  </si>
-  <si>
-    <t>FichePrescription: 41</t>
-  </si>
-  <si>
-    <t>FicheDetailPrescription: 34</t>
-  </si>
-  <si>
-    <t>FicheTiers: 29</t>
-  </si>
-  <si>
-    <t>Packages blank lines:</t>
-  </si>
-  <si>
-    <t>java: 529</t>
-  </si>
-  <si>
-    <t>main: 529</t>
-  </si>
-  <si>
-    <t>src: 529</t>
-  </si>
-  <si>
-    <t>esante: 478</t>
-  </si>
-  <si>
-    <t>mini: 478</t>
-  </si>
-  <si>
     <t>Classes count</t>
   </si>
   <si>
@@ -144,15 +84,6 @@
     <t>Packages with the biggest number of classes:</t>
   </si>
   <si>
-    <t>java: 22</t>
-  </si>
-  <si>
-    <t>main: 22</t>
-  </si>
-  <si>
-    <t>src: 22</t>
-  </si>
-  <si>
     <t>esante: 19</t>
   </si>
   <si>
@@ -210,9 +141,6 @@
     <t>LCOM</t>
   </si>
   <si>
-    <t>Average LCOM 1: 19</t>
-  </si>
-  <si>
     <t>Classes with the highest LCOM 1:</t>
   </si>
   <si>
@@ -237,15 +165,6 @@
     <t>Model: 62</t>
   </si>
   <si>
-    <t>java: 19</t>
-  </si>
-  <si>
-    <t>main: 19</t>
-  </si>
-  <si>
-    <t>src: 19</t>
-  </si>
-  <si>
     <t>Average LCOM 2: 0.6494144679509586</t>
   </si>
   <si>
@@ -276,15 +195,6 @@
     <t>Networking: 0.7276785714285715</t>
   </si>
   <si>
-    <t>java: 0.6494144679509586</t>
-  </si>
-  <si>
-    <t>main: 0.6494144679509586</t>
-  </si>
-  <si>
-    <t>src: 0.6494144679509586</t>
-  </si>
-  <si>
     <t>Average LCOM 3: 0.7911166862103106</t>
   </si>
   <si>
@@ -312,15 +222,6 @@
     <t>Model: 0.9816849816849818</t>
   </si>
   <si>
-    <t>java: 0.7911166862103106</t>
-  </si>
-  <si>
-    <t>main: 0.7911166862103106</t>
-  </si>
-  <si>
-    <t>src: 0.7911166862103106</t>
-  </si>
-  <si>
     <t>esante: 0.7650049635532203</t>
   </si>
   <si>
@@ -351,15 +252,6 @@
     <t>Model: 9</t>
   </si>
   <si>
-    <t>java: 4</t>
-  </si>
-  <si>
-    <t>main: 4</t>
-  </si>
-  <si>
-    <t>src: 4</t>
-  </si>
-  <si>
     <t>esante: 4</t>
   </si>
   <si>
@@ -549,18 +441,12 @@
     <t>NetworkingJCSP: 1</t>
   </si>
   <si>
-    <t>Total LOC: 190</t>
-  </si>
-  <si>
     <t>NetworkingRMI: 131</t>
   </si>
   <si>
     <t>ImplimentationService: 59</t>
   </si>
   <si>
-    <t>Total imports: 24</t>
-  </si>
-  <si>
     <t>NetworkingRMI: 13</t>
   </si>
   <si>
@@ -579,9 +465,6 @@
     <t>ImplimentationService: 2</t>
   </si>
   <si>
-    <t>Average cyclomatic complexity: 1.2727272727272727</t>
-  </si>
-  <si>
     <t>ImplimentationService::SetPrescription: 2</t>
   </si>
   <si>
@@ -591,51 +474,18 @@
     <t>NetworkingRMI::Recive: 2</t>
   </si>
   <si>
-    <t>NetworkingRMI::SendPrescription: 1</t>
-  </si>
-  <si>
-    <t>NetworkingRMI::SendSollicitation: 1</t>
-  </si>
-  <si>
-    <t>NetworkingRMI::GetAnnuere: 1</t>
-  </si>
-  <si>
-    <t>NetworkingRMI::GetIPUser: 1</t>
-  </si>
-  <si>
-    <t>NetworkingRMI::GetServiceDestant: 1</t>
-  </si>
-  <si>
-    <t>NetworkingRMI::Connect: 1</t>
-  </si>
-  <si>
-    <t>NetworkingRMI::Deconnect: 1</t>
-  </si>
-  <si>
-    <t>NetworkingRMI::EndRecive: 1</t>
-  </si>
-  <si>
-    <t>Average LCOM 1: 9</t>
-  </si>
-  <si>
     <t>NetworkingRMI: 18</t>
   </si>
   <si>
     <t>ImplimentationService: 0</t>
   </si>
   <si>
-    <t>Average LCOM 2: 0.39814814814814814</t>
-  </si>
-  <si>
     <t>NetworkingRMI: 0.7962962962962963</t>
   </si>
   <si>
     <t>ImplimentationService: 0.0</t>
   </si>
   <si>
-    <t>Average LCOM 3: 0.4479166666666667</t>
-  </si>
-  <si>
     <t>NetworkingRMI: 0.8958333333333334</t>
   </si>
   <si>
@@ -658,6 +508,1068 @@
   </si>
   <si>
     <t>MiniISanteRMI</t>
+  </si>
+  <si>
+    <t>Total LOC: 658</t>
+  </si>
+  <si>
+    <t>Server: 206</t>
+  </si>
+  <si>
+    <t>Bdd: 130</t>
+  </si>
+  <si>
+    <t>NetworkingAnnuaire: 113</t>
+  </si>
+  <si>
+    <t>ServerSetupDialog: 85</t>
+  </si>
+  <si>
+    <t>MetierAnnuair: 49</t>
+  </si>
+  <si>
+    <t>annuaireminesante: 291</t>
+  </si>
+  <si>
+    <t>xpertsoft: 291</t>
+  </si>
+  <si>
+    <t>com: 291</t>
+  </si>
+  <si>
+    <t>Networking: 188</t>
+  </si>
+  <si>
+    <t>Metier: 179</t>
+  </si>
+  <si>
+    <t>Total imports: 39</t>
+  </si>
+  <si>
+    <t>Server: 16</t>
+  </si>
+  <si>
+    <t>MetierAnnuair: 7</t>
+  </si>
+  <si>
+    <t>Bdd: 6</t>
+  </si>
+  <si>
+    <t>NetworkingAnnuaire: 5</t>
+  </si>
+  <si>
+    <t>ServerSetupDialog: 3</t>
+  </si>
+  <si>
+    <t>annuaireminesante: 19</t>
+  </si>
+  <si>
+    <t>xpertsoft: 19</t>
+  </si>
+  <si>
+    <t>com: 19</t>
+  </si>
+  <si>
+    <t>Metier: 13</t>
+  </si>
+  <si>
+    <t>Networking: 7</t>
+  </si>
+  <si>
+    <t>Total classes: 6</t>
+  </si>
+  <si>
+    <t>annuaireminesante: 2</t>
+  </si>
+  <si>
+    <t>xpertsoft: 2</t>
+  </si>
+  <si>
+    <t>com: 2</t>
+  </si>
+  <si>
+    <t>Metier: 2</t>
+  </si>
+  <si>
+    <t>Networking: 2</t>
+  </si>
+  <si>
+    <t>Total methods: 25</t>
+  </si>
+  <si>
+    <t>Bdd: 9</t>
+  </si>
+  <si>
+    <t>NetworkingAnnuaire: 3</t>
+  </si>
+  <si>
+    <t>MetierAnnuair: 2</t>
+  </si>
+  <si>
+    <t>ServerSetupDialog: 2</t>
+  </si>
+  <si>
+    <t>Server: 1</t>
+  </si>
+  <si>
+    <t>Average cyclomatic complexity: 1.6</t>
+  </si>
+  <si>
+    <t>NetworkingAnnuaire::run: 9</t>
+  </si>
+  <si>
+    <t>Server::main: 3</t>
+  </si>
+  <si>
+    <t>MetierAnnuair::login: 3</t>
+  </si>
+  <si>
+    <t>ServerSetupDialog::processWindowEvent: 2</t>
+  </si>
+  <si>
+    <t>Bdd::getNBEnre: 2</t>
+  </si>
+  <si>
+    <t>Bdd::deconnexion: 2</t>
+  </si>
+  <si>
+    <t>NetworkingAnnuaire::addOutputAdress: 1</t>
+  </si>
+  <si>
+    <t>NetworkingAnnuaire::removeOutputAdress: 1</t>
+  </si>
+  <si>
+    <t>ServerSetupDialog::getChannelName: 1</t>
+  </si>
+  <si>
+    <t>Bdd::GetPreparedStatement: 1</t>
+  </si>
+  <si>
+    <t>Bdd::GetConnection: 1</t>
+  </si>
+  <si>
+    <t>Bdd::exec2: 1</t>
+  </si>
+  <si>
+    <t>Average LCOM 1: 3</t>
+  </si>
+  <si>
+    <t>ServerSetupDialog: 1</t>
+  </si>
+  <si>
+    <t>Bdd: 0</t>
+  </si>
+  <si>
+    <t>NetworkingAnnuaire: 0</t>
+  </si>
+  <si>
+    <t>MetierAnnuair: 0</t>
+  </si>
+  <si>
+    <t>Server: 0</t>
+  </si>
+  <si>
+    <t>Networking: 10</t>
+  </si>
+  <si>
+    <t>annuaireminesante: 0</t>
+  </si>
+  <si>
+    <t>xpertsoft: 0</t>
+  </si>
+  <si>
+    <t>com: 0</t>
+  </si>
+  <si>
+    <t>Metier: 0</t>
+  </si>
+  <si>
+    <t>Average LCOM 2: 0.3974867724867725</t>
+  </si>
+  <si>
+    <t>ServerSetupDialog: 0.8333333333333334</t>
+  </si>
+  <si>
+    <t>NetworkingAnnuaire: 0.5833333333333333</t>
+  </si>
+  <si>
+    <t>Bdd: 0.11111111111111116</t>
+  </si>
+  <si>
+    <t>MetierAnnuair: 0.0</t>
+  </si>
+  <si>
+    <t>Server: 0.0</t>
+  </si>
+  <si>
+    <t>Networking: 0.7202380952380952</t>
+  </si>
+  <si>
+    <t>annuaireminesante: 0.4166666666666667</t>
+  </si>
+  <si>
+    <t>xpertsoft: 0.4166666666666667</t>
+  </si>
+  <si>
+    <t>com: 0.4166666666666667</t>
+  </si>
+  <si>
+    <t>Metier: 0.05555555555555558</t>
+  </si>
+  <si>
+    <t>Average LCOM 3: 0.6077097505668935</t>
+  </si>
+  <si>
+    <t>ServerSetupDialog: 1.6666666666666667</t>
+  </si>
+  <si>
+    <t>NetworkingAnnuaire: 0.875</t>
+  </si>
+  <si>
+    <t>Bdd: 0.125</t>
+  </si>
+  <si>
+    <t>Networking: 0.927295918367347</t>
+  </si>
+  <si>
+    <t>annuaireminesante: 0.8333333333333334</t>
+  </si>
+  <si>
+    <t>xpertsoft: 0.8333333333333334</t>
+  </si>
+  <si>
+    <t>com: 0.8333333333333334</t>
+  </si>
+  <si>
+    <t>Metier: 0.0625</t>
+  </si>
+  <si>
+    <t>Bdd: 2</t>
+  </si>
+  <si>
+    <t>NetworkingAnnuaire: 1</t>
+  </si>
+  <si>
+    <t>MetierAnnuair: 1</t>
+  </si>
+  <si>
+    <t>annuaireminesante: 1</t>
+  </si>
+  <si>
+    <t>xpertsoft: 1</t>
+  </si>
+  <si>
+    <t>com: 1</t>
+  </si>
+  <si>
+    <t>Metier: 1</t>
+  </si>
+  <si>
+    <t>MetierAnnuair::desconnect: 1</t>
+  </si>
+  <si>
+    <t>Bdd::exec: 1</t>
+  </si>
+  <si>
+    <t>Bdd::executUpdate: 1</t>
+  </si>
+  <si>
+    <t>Bdd::ExecForUpdate: 1</t>
+  </si>
+  <si>
+    <t>Bdd::initialiserConnexion: 1</t>
+  </si>
+  <si>
+    <t>Total LOC: 298</t>
+  </si>
+  <si>
+    <t>BDD: 130</t>
+  </si>
+  <si>
+    <t>Server: 69</t>
+  </si>
+  <si>
+    <t>AnnuaireDAO: 58</t>
+  </si>
+  <si>
+    <t>Metier: 188</t>
+  </si>
+  <si>
+    <t>annuaireminesante: 69</t>
+  </si>
+  <si>
+    <t>xpertsoft: 69</t>
+  </si>
+  <si>
+    <t>com: 69</t>
+  </si>
+  <si>
+    <t>Networking: 41</t>
+  </si>
+  <si>
+    <t>Total imports: 30</t>
+  </si>
+  <si>
+    <t>Server: 14</t>
+  </si>
+  <si>
+    <t>AnnuaireDAO: 7</t>
+  </si>
+  <si>
+    <t>BDD: 6</t>
+  </si>
+  <si>
+    <t>annuaireminesante: 14</t>
+  </si>
+  <si>
+    <t>xpertsoft: 14</t>
+  </si>
+  <si>
+    <t>com: 14</t>
+  </si>
+  <si>
+    <t>Networking: 3</t>
+  </si>
+  <si>
+    <t>Total classes: 4</t>
+  </si>
+  <si>
+    <t>Networking: 1</t>
+  </si>
+  <si>
+    <t>Total methods: 16</t>
+  </si>
+  <si>
+    <t>BDD: 9</t>
+  </si>
+  <si>
+    <t>AnnuaireDAO: 3</t>
+  </si>
+  <si>
+    <t>Average cyclomatic complexity: 1.5</t>
+  </si>
+  <si>
+    <t>Server::main: 4</t>
+  </si>
+  <si>
+    <t>AnnuaireDAO::login: 3</t>
+  </si>
+  <si>
+    <t>AnnuaireDAO::GetIPAdress: 2</t>
+  </si>
+  <si>
+    <t>BDD::getNBEnre: 2</t>
+  </si>
+  <si>
+    <t>BDD::deconnexion: 2</t>
+  </si>
+  <si>
+    <t>AnnuaireDAO::desconnect: 1</t>
+  </si>
+  <si>
+    <t>BDD::executUpdate: 1</t>
+  </si>
+  <si>
+    <t>BDD::ExecForUpdate: 1</t>
+  </si>
+  <si>
+    <t>BDD::initialiserConnexion: 1</t>
+  </si>
+  <si>
+    <t>BDD::exec2: 1</t>
+  </si>
+  <si>
+    <t>BDD::exec: 1</t>
+  </si>
+  <si>
+    <t>BDD::GetConnection: 1</t>
+  </si>
+  <si>
+    <t>BDD::GetPreparedStatement: 1</t>
+  </si>
+  <si>
+    <t>BDD: 0</t>
+  </si>
+  <si>
+    <t>AnnuaireDAO: 0</t>
+  </si>
+  <si>
+    <t>Networking: 0</t>
+  </si>
+  <si>
+    <t>Average LCOM 2: 0.02777777777777779</t>
+  </si>
+  <si>
+    <t>BDD: 0.11111111111111116</t>
+  </si>
+  <si>
+    <t>AnnuaireDAO: 0.0</t>
+  </si>
+  <si>
+    <t>annuaireminesante: 0.0</t>
+  </si>
+  <si>
+    <t>xpertsoft: 0.0</t>
+  </si>
+  <si>
+    <t>com: 0.0</t>
+  </si>
+  <si>
+    <t>Networking: 0.0</t>
+  </si>
+  <si>
+    <t>Average LCOM 3: 0.03125</t>
+  </si>
+  <si>
+    <t>BDD: 0.125</t>
+  </si>
+  <si>
+    <t>BDD: 2</t>
+  </si>
+  <si>
+    <t>AnnuaireDAO: 1</t>
+  </si>
+  <si>
+    <t>GetIPForm: 166</t>
+  </si>
+  <si>
+    <t>LoginForm: 142</t>
+  </si>
+  <si>
+    <t>AbstractTableModelPrescription: 133</t>
+  </si>
+  <si>
+    <t>AbstractTableModelTiers: 117</t>
+  </si>
+  <si>
+    <t>ConnectDialog: 114</t>
+  </si>
+  <si>
+    <t>SollicitationForm: 106</t>
+  </si>
+  <si>
+    <t>Prescriptionentet: 97</t>
+  </si>
+  <si>
+    <t>Tiers: 95</t>
+  </si>
+  <si>
+    <t>AbstractTableModelPrescriptionDetail: 90</t>
+  </si>
+  <si>
+    <t>DefaultComboBoxModelTiers: 61</t>
+  </si>
+  <si>
+    <t>UTIL: 61</t>
+  </si>
+  <si>
+    <t>PrescriptionDetail: 52</t>
+  </si>
+  <si>
+    <t>xpertsoft: 3141</t>
+  </si>
+  <si>
+    <t>com: 3141</t>
+  </si>
+  <si>
+    <t>gui: 2506</t>
+  </si>
+  <si>
+    <t>Metier: 391</t>
+  </si>
+  <si>
+    <t>Networking: 306</t>
+  </si>
+  <si>
+    <t>Model: 244</t>
+  </si>
+  <si>
+    <t>UTIL: 8</t>
+  </si>
+  <si>
+    <t>AbstractTableModelPrescription: 6</t>
+  </si>
+  <si>
+    <t>AbstractTableModelTiers: 5</t>
+  </si>
+  <si>
+    <t>AbstractTableModelPrescriptionDetail: 5</t>
+  </si>
+  <si>
+    <t>FicheTiers: 4</t>
+  </si>
+  <si>
+    <t>DefaultComboBoxModelTiers: 4</t>
+  </si>
+  <si>
+    <t>ConnectDialog: 3</t>
+  </si>
+  <si>
+    <t>Prescriptionentet: 3</t>
+  </si>
+  <si>
+    <t>Tiers: 3</t>
+  </si>
+  <si>
+    <t>MyListeCellRenderer: 3</t>
+  </si>
+  <si>
+    <t>HibernateUtil: 2</t>
+  </si>
+  <si>
+    <t>GetIPForm: 1</t>
+  </si>
+  <si>
+    <t>LoginForm: 0</t>
+  </si>
+  <si>
+    <t>xpertsoft: 101</t>
+  </si>
+  <si>
+    <t>com: 101</t>
+  </si>
+  <si>
+    <t>gui: 83</t>
+  </si>
+  <si>
+    <t>Networking: 15</t>
+  </si>
+  <si>
+    <t>Metier: 12</t>
+  </si>
+  <si>
+    <t>Model: 6</t>
+  </si>
+  <si>
+    <t>gui: 14</t>
+  </si>
+  <si>
+    <t>Model: 3</t>
+  </si>
+  <si>
+    <t>AbstractTableModelPrescription: 9</t>
+  </si>
+  <si>
+    <t>AbstractTableModelTiers: 9</t>
+  </si>
+  <si>
+    <t>AbstractTableModelPrescriptionDetail: 9</t>
+  </si>
+  <si>
+    <t>DefaultComboBoxModelTiers: 7</t>
+  </si>
+  <si>
+    <t>FicheDetailPrescription: 6</t>
+  </si>
+  <si>
+    <t>ConnectDialog: 4</t>
+  </si>
+  <si>
+    <t>GetIPForm: 4</t>
+  </si>
+  <si>
+    <t>FicheTiers: 3</t>
+  </si>
+  <si>
+    <t>LoginForm: 3</t>
+  </si>
+  <si>
+    <t>SollicitationForm: 3</t>
+  </si>
+  <si>
+    <t>UTIL: 2</t>
+  </si>
+  <si>
+    <t>AbstractTableModelTiers::getValueAt: 7</t>
+  </si>
+  <si>
+    <t>AbstractTableModelPrescriptionDetail::setValueAt: 4</t>
+  </si>
+  <si>
+    <t>UTIL::RemplirComboBoxXD: 4</t>
+  </si>
+  <si>
+    <t>AbstractTableModelPrescriptionDetail::getValueAt: 3</t>
+  </si>
+  <si>
+    <t>FichePrescription::jButtonValiderActionPerformed: 3</t>
+  </si>
+  <si>
+    <t>UTIL::GetIndexByID: 3</t>
+  </si>
+  <si>
+    <t>FicheTiers::jButtonOKActionPerformed: 3</t>
+  </si>
+  <si>
+    <t>menu::jButtonConnectClientActionPerformed: 3</t>
+  </si>
+  <si>
+    <t>FicheDetailPrescription::okButtonActionPerformed: 3</t>
+  </si>
+  <si>
+    <t>GetIPForm::jButton1ActionPerformed: 2</t>
+  </si>
+  <si>
+    <t>menu::displayPrescription: 2</t>
+  </si>
+  <si>
+    <t>menu::jTablePRescriptionMouseClicked: 2</t>
+  </si>
+  <si>
+    <t>menu::jButtonSupprimerTiersActionPerformed: 2</t>
+  </si>
+  <si>
+    <t>menu::jButtonSolliciterActionPerformed: 2</t>
+  </si>
+  <si>
+    <t>menu::jButtonConnectAnnuaireActionPerformed: 2</t>
+  </si>
+  <si>
+    <t>Average LCOM 1: 20</t>
+  </si>
+  <si>
+    <t>FichePrescription: 19</t>
+  </si>
+  <si>
+    <t>PrescriptionDetail: 15</t>
+  </si>
+  <si>
+    <t>AbstractTableModelPrescription: 14</t>
+  </si>
+  <si>
+    <t>AbstractTableModelTiers: 14</t>
+  </si>
+  <si>
+    <t>AbstractTableModelPrescriptionDetail: 14</t>
+  </si>
+  <si>
+    <t>DefaultComboBoxModelTiers: 9</t>
+  </si>
+  <si>
+    <t>ConnectDialog: 6</t>
+  </si>
+  <si>
+    <t>FicheTiers: 1</t>
+  </si>
+  <si>
+    <t>SollicitationForm: 1</t>
+  </si>
+  <si>
+    <t>UTIL: 1</t>
+  </si>
+  <si>
+    <t>HibernateUtil: 1</t>
+  </si>
+  <si>
+    <t>MiniESanteDAO: 0</t>
+  </si>
+  <si>
+    <t>FicheDetailPrescription: 0</t>
+  </si>
+  <si>
+    <t>esante: 20</t>
+  </si>
+  <si>
+    <t>mini: 20</t>
+  </si>
+  <si>
+    <t>xpertsoft: 20</t>
+  </si>
+  <si>
+    <t>com: 20</t>
+  </si>
+  <si>
+    <t>Networking: 18</t>
+  </si>
+  <si>
+    <t>PrescriptionDetail: 0.8333333333333334</t>
+  </si>
+  <si>
+    <t>FichePrescription: 0.7717391304347826</t>
+  </si>
+  <si>
+    <t>GetIPForm: 0.7307692307692308</t>
+  </si>
+  <si>
+    <t>SollicitationForm: 0.7222222222222222</t>
+  </si>
+  <si>
+    <t>LoginForm: 0.7</t>
+  </si>
+  <si>
+    <t>AbstractTableModelPrescriptionDetail: 0.6666666666666667</t>
+  </si>
+  <si>
+    <t>FicheDetailPrescription: 0.6666666666666667</t>
+  </si>
+  <si>
+    <t>AbstractTableModelPrescription: 0.6111111111111112</t>
+  </si>
+  <si>
+    <t>AbstractTableModelTiers: 0.6111111111111112</t>
+  </si>
+  <si>
+    <t>FicheTiers: 0.5333333333333333</t>
+  </si>
+  <si>
+    <t>HibernateUtil: 0.5</t>
+  </si>
+  <si>
+    <t>MyListeCellRenderer: 0.5</t>
+  </si>
+  <si>
+    <t>DefaultComboBoxModelTiers: 0.4285714285714286</t>
+  </si>
+  <si>
+    <t>esante: 0.6370569779281776</t>
+  </si>
+  <si>
+    <t>mini: 0.6370569779281776</t>
+  </si>
+  <si>
+    <t>xpertsoft: 0.6370569779281776</t>
+  </si>
+  <si>
+    <t>com: 0.6370569779281776</t>
+  </si>
+  <si>
+    <t>gui: 0.6284257236896987</t>
+  </si>
+  <si>
+    <t>Metier: 0.3333333333333333</t>
+  </si>
+  <si>
+    <t>FichePrescription: 0.8819875776397516</t>
+  </si>
+  <si>
+    <t>PrescriptionDetail: 1.0</t>
+  </si>
+  <si>
+    <t>AbstractTableModelPrescriptionDetail: 0.75</t>
+  </si>
+  <si>
+    <t>AbstractTableModelPrescription: 0.6875</t>
+  </si>
+  <si>
+    <t>AbstractTableModelTiers: 0.6875</t>
+  </si>
+  <si>
+    <t>DefaultComboBoxModelTiers: 0.5</t>
+  </si>
+  <si>
+    <t>ConnectDialog: 1.222222222222222</t>
+  </si>
+  <si>
+    <t>GetIPForm: 0.9743589743589745</t>
+  </si>
+  <si>
+    <t>SollicitationForm: 1.0833333333333333</t>
+  </si>
+  <si>
+    <t>FicheTiers: 0.8</t>
+  </si>
+  <si>
+    <t>HibernateUtil: 1.0</t>
+  </si>
+  <si>
+    <t>UTIL: 0.0</t>
+  </si>
+  <si>
+    <t>LoginForm: 1.05</t>
+  </si>
+  <si>
+    <t>FicheDetailPrescription: 0.8</t>
+  </si>
+  <si>
+    <t>MyListeCellRenderer: 0.0</t>
+  </si>
+  <si>
+    <t>mini: 0.7650049635532203</t>
+  </si>
+  <si>
+    <t>xpertsoft: 0.7650049635532203</t>
+  </si>
+  <si>
+    <t>com: 0.7650049635532203</t>
+  </si>
+  <si>
+    <t>Networking: 0.9564909297052154</t>
+  </si>
+  <si>
+    <t>gui: 0.743826341015782</t>
+  </si>
+  <si>
+    <t>Metier: 0.5882352941176471</t>
+  </si>
+  <si>
+    <t>FichePrescription: 4</t>
+  </si>
+  <si>
+    <t>AbstractTableModelPrescriptionDetail: 4</t>
+  </si>
+  <si>
+    <t>AbstractTableModelPrescription: 4</t>
+  </si>
+  <si>
+    <t>AbstractTableModelTiers: 4</t>
+  </si>
+  <si>
+    <t>MiniESanteDAO: 4</t>
+  </si>
+  <si>
+    <t>GetIPForm: 3</t>
+  </si>
+  <si>
+    <t>SollicitationForm: 2</t>
+  </si>
+  <si>
+    <t>FicheTiers: 2</t>
+  </si>
+  <si>
+    <t>LoginForm: 1</t>
+  </si>
+  <si>
+    <t>FicheDetailPrescription: 1</t>
+  </si>
+  <si>
+    <t>mini: 4</t>
+  </si>
+  <si>
+    <t>xpertsoft: 4</t>
+  </si>
+  <si>
+    <t>com: 4</t>
+  </si>
+  <si>
+    <t>gui: 3</t>
+  </si>
+  <si>
+    <t>Metier: 3</t>
+  </si>
+  <si>
+    <t>Total LOC: 3153</t>
+  </si>
+  <si>
+    <t>menu: 598</t>
+  </si>
+  <si>
+    <t>GetIPForm: 165</t>
+  </si>
+  <si>
+    <t>PrescriptionDetail: 53</t>
+  </si>
+  <si>
+    <t>MyListeCellRenderer: 49</t>
+  </si>
+  <si>
+    <t>HibernateUtil: 37</t>
+  </si>
+  <si>
+    <t>esante: 3153</t>
+  </si>
+  <si>
+    <t>mini: 3153</t>
+  </si>
+  <si>
+    <t>xpertsoft: 3153</t>
+  </si>
+  <si>
+    <t>com: 3153</t>
+  </si>
+  <si>
+    <t>gui: 2327</t>
+  </si>
+  <si>
+    <t>Model: 245</t>
+  </si>
+  <si>
+    <t>RMI: 190</t>
+  </si>
+  <si>
+    <t>Total imports: 108</t>
+  </si>
+  <si>
+    <t>menu: 6</t>
+  </si>
+  <si>
+    <t>SollicitationForm: 0</t>
+  </si>
+  <si>
+    <t>PrescriptionDetail: 0</t>
+  </si>
+  <si>
+    <t>esante: 108</t>
+  </si>
+  <si>
+    <t>mini: 108</t>
+  </si>
+  <si>
+    <t>xpertsoft: 108</t>
+  </si>
+  <si>
+    <t>com: 108</t>
+  </si>
+  <si>
+    <t>gui: 66</t>
+  </si>
+  <si>
+    <t>RMI: 24</t>
+  </si>
+  <si>
+    <t>Total classes: 20</t>
+  </si>
+  <si>
+    <t>gui: 13</t>
+  </si>
+  <si>
+    <t>RMI: 2</t>
+  </si>
+  <si>
+    <t>Total methods: 149</t>
+  </si>
+  <si>
+    <t>MyListeCellRenderer: 1</t>
+  </si>
+  <si>
+    <t>Average cyclomatic complexity: 1.5838926174496644</t>
+  </si>
+  <si>
+    <t>menu::jButtonConnectAnnuaireActionPerformed: 4</t>
+  </si>
+  <si>
+    <t>menu::jButtonConnectClientActionPerformed: 4</t>
+  </si>
+  <si>
+    <t>menu::jButtonDeconnectAnnuairActionPerformed: 3</t>
+  </si>
+  <si>
+    <t>menu::jButtonSolliciterActionPerformed: 3</t>
+  </si>
+  <si>
+    <t>MiniESanteDAO::DeletPrescriptionByID: 2</t>
+  </si>
+  <si>
+    <t>Average LCOM 1: 13</t>
+  </si>
+  <si>
+    <t>menu: 8</t>
+  </si>
+  <si>
+    <t>FichePrescription: 0</t>
+  </si>
+  <si>
+    <t>MyListeCellRenderer: 0</t>
+  </si>
+  <si>
+    <t>esante: 13</t>
+  </si>
+  <si>
+    <t>mini: 13</t>
+  </si>
+  <si>
+    <t>xpertsoft: 13</t>
+  </si>
+  <si>
+    <t>com: 13</t>
+  </si>
+  <si>
+    <t>RMI: 9</t>
+  </si>
+  <si>
+    <t>gui: 5</t>
+  </si>
+  <si>
+    <t>Average LCOM 2: 0.5975638156414553</t>
+  </si>
+  <si>
+    <t>menu: 0.9066666666666666</t>
+  </si>
+  <si>
+    <t>MiniESanteDAO: 0.16666666666666663</t>
+  </si>
+  <si>
+    <t>gui: 0.6037582744271707</t>
+  </si>
+  <si>
+    <t>esante: 0.5975638156414553</t>
+  </si>
+  <si>
+    <t>mini: 0.5975638156414553</t>
+  </si>
+  <si>
+    <t>xpertsoft: 0.5975638156414553</t>
+  </si>
+  <si>
+    <t>com: 0.5975638156414553</t>
+  </si>
+  <si>
+    <t>RMI: 0.39814814814814814</t>
+  </si>
+  <si>
+    <t>Average LCOM 3: 0.7093212358433957</t>
+  </si>
+  <si>
+    <t>menu: 0.9543859649122807</t>
+  </si>
+  <si>
+    <t>MiniESanteDAO: 0.17647058823529413</t>
+  </si>
+  <si>
+    <t>esante: 0.7093212358433957</t>
+  </si>
+  <si>
+    <t>mini: 0.7093212358433957</t>
+  </si>
+  <si>
+    <t>xpertsoft: 0.7093212358433957</t>
+  </si>
+  <si>
+    <t>com: 0.7093212358433957</t>
+  </si>
+  <si>
+    <t>RMI: 0.4479166666666667</t>
+  </si>
+  <si>
+    <t>gui: 0.7053127577111031</t>
+  </si>
+  <si>
+    <t>menu: 7</t>
+  </si>
+  <si>
+    <t>FichePrescription: 3</t>
+  </si>
+  <si>
+    <t>esante: 3</t>
+  </si>
+  <si>
+    <t>mini: 3</t>
+  </si>
+  <si>
+    <t>xpertsoft: 3</t>
+  </si>
+  <si>
+    <t>com: 3</t>
+  </si>
+  <si>
+    <t>gui: 2</t>
+  </si>
+  <si>
+    <t>Total LOC: 188</t>
+  </si>
+  <si>
+    <t>Total imports: 7</t>
+  </si>
+  <si>
+    <t>Average cyclomatic complexity: 1.7272727272727273</t>
+  </si>
+  <si>
+    <t>Average LCOM 1: 10</t>
+  </si>
+  <si>
+    <t>Average LCOM 2: 0.7202380952380952</t>
+  </si>
+  <si>
+    <t>Average LCOM 3: 0.927295918367347</t>
   </si>
 </sst>
 </file>
@@ -989,502 +1901,566 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J186"/>
+  <dimension ref="A1:J314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C112" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="46" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
     <col min="9" max="9" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="D1" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="G1" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="J1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>115</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="J4" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>136</v>
+        <v>7</v>
       </c>
       <c r="J5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G7" t="s">
-        <v>117</v>
-      </c>
-      <c r="J7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9" t="s">
-        <v>137</v>
-      </c>
-      <c r="J9" t="s">
-        <v>178</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>165</v>
+      </c>
+      <c r="D10" t="s">
+        <v>255</v>
       </c>
       <c r="G10" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="J10" t="s">
-        <v>179</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>256</v>
       </c>
       <c r="G11" t="s">
-        <v>139</v>
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>167</v>
+      </c>
+      <c r="D12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" t="s">
         <v>3</v>
       </c>
-      <c r="G13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="D14" t="s">
-        <v>10</v>
+      <c r="J14" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" t="s">
         <v>4</v>
       </c>
-      <c r="D15" t="s">
-        <v>11</v>
+      <c r="G15" t="s">
+        <v>304</v>
       </c>
       <c r="J15" t="s">
-        <v>10</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="J16" t="s">
-        <v>11</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>119</v>
+        <v>258</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="J17" t="s">
-        <v>10</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>6</v>
+      <c r="D18" t="s">
+        <v>259</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>306</v>
       </c>
       <c r="J18" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>170</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>260</v>
       </c>
       <c r="G19" t="s">
-        <v>140</v>
+        <v>307</v>
+      </c>
+      <c r="J19" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>171</v>
+      </c>
+      <c r="D20" t="s">
+        <v>261</v>
+      </c>
+      <c r="G20" t="s">
+        <v>308</v>
       </c>
       <c r="J20" t="s">
-        <v>13</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>172</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>262</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>309</v>
+      </c>
+      <c r="J21" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" t="s">
+        <v>310</v>
+      </c>
       <c r="J22" t="s">
-        <v>181</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>311</v>
       </c>
       <c r="J23" t="s">
-        <v>182</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>11</v>
+      <c r="D24" t="s">
+        <v>8</v>
       </c>
       <c r="G24" t="s">
-        <v>141</v>
+        <v>312</v>
+      </c>
+      <c r="J24" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
       </c>
       <c r="G25" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="J25" t="s">
-        <v>19</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>263</v>
+      </c>
+      <c r="G26" t="s">
+        <v>103</v>
+      </c>
+      <c r="J26" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="D27" t="s">
-        <v>39</v>
+      <c r="A27" t="s">
+        <v>7</v>
       </c>
       <c r="G27" t="s">
-        <v>19</v>
+        <v>313</v>
+      </c>
+      <c r="J27" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
       </c>
+      <c r="G28" t="s">
+        <v>314</v>
+      </c>
       <c r="J28" t="s">
-        <v>10</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="D29" t="s">
-        <v>121</v>
+      <c r="G29" t="s">
+        <v>315</v>
       </c>
       <c r="J29" t="s">
-        <v>39</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s">
         <v>10</v>
       </c>
-      <c r="J30" t="s">
-        <v>10</v>
+      <c r="D30" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" t="s">
-        <v>15</v>
-      </c>
       <c r="D31" t="s">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="J31" t="s">
-        <v>183</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s">
-        <v>10</v>
+        <v>176</v>
+      </c>
+      <c r="D32" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>177</v>
+      </c>
+      <c r="D33" t="s">
+        <v>84</v>
       </c>
       <c r="G33" t="s">
-        <v>143</v>
+        <v>5</v>
       </c>
       <c r="J33" t="s">
-        <v>41</v>
+        <v>449</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" t="s">
-        <v>10</v>
+        <v>178</v>
+      </c>
+      <c r="G34" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>179</v>
+      </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="G35" t="s">
-        <v>41</v>
+        <v>316</v>
+      </c>
+      <c r="J35" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" t="s">
-        <v>10</v>
+        <v>180</v>
+      </c>
+      <c r="G36" t="s">
+        <v>317</v>
       </c>
       <c r="J36" t="s">
-        <v>10</v>
+        <v>452</v>
       </c>
     </row>
     <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>106</v>
+      </c>
       <c r="D37" t="s">
-        <v>122</v>
+        <v>267</v>
+      </c>
+      <c r="G37" t="s">
+        <v>318</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>453</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" t="s">
-        <v>20</v>
+      <c r="D38" t="s">
+        <v>268</v>
       </c>
       <c r="G38" t="s">
-        <v>10</v>
+        <v>319</v>
       </c>
       <c r="J38" t="s">
-        <v>10</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>269</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>320</v>
       </c>
       <c r="J39" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="D40" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" t="s">
-        <v>22</v>
-      </c>
       <c r="G40" t="s">
-        <v>10</v>
+        <v>321</v>
+      </c>
+      <c r="J40" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="D41" t="s">
-        <v>120</v>
-      </c>
-      <c r="G41" t="s">
-        <v>144</v>
+        <v>270</v>
       </c>
       <c r="J41" t="s">
-        <v>49</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>182</v>
+      </c>
+      <c r="G42" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>183</v>
+      </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G43" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="J43" t="s">
-        <v>185</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="D44" t="s">
-        <v>55</v>
+        <v>19</v>
+      </c>
+      <c r="G44" t="s">
+        <v>7</v>
       </c>
       <c r="J44" t="s">
-        <v>186</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>54</v>
+        <v>9</v>
+      </c>
+      <c r="J45" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" t="s">
-        <v>10</v>
-      </c>
       <c r="D46" t="s">
-        <v>123</v>
-      </c>
-      <c r="G46" t="s">
-        <v>145</v>
+        <v>271</v>
       </c>
       <c r="J46" t="s">
-        <v>10</v>
+        <v>456</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="G47" t="s">
-        <v>146</v>
-      </c>
-      <c r="J47" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>19</v>
+      </c>
       <c r="D48" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="J48" t="s">
         <v>10</v>
@@ -1492,963 +2468,2525 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G49" t="s">
-        <v>10</v>
-      </c>
-      <c r="J49" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>186</v>
+      </c>
       <c r="D50" t="s">
-        <v>124</v>
+        <v>190</v>
       </c>
       <c r="G50" t="s">
-        <v>55</v>
+        <v>12</v>
+      </c>
+      <c r="J50" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" t="s">
-        <v>28</v>
-      </c>
       <c r="D51" t="s">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="G51" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J51" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D52" t="s">
-        <v>126</v>
+        <v>246</v>
       </c>
       <c r="G52" t="s">
-        <v>147</v>
+        <v>14</v>
+      </c>
+      <c r="J52" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" t="s">
-        <v>30</v>
+      <c r="D53" t="s">
+        <v>247</v>
+      </c>
+      <c r="G53" t="s">
+        <v>15</v>
       </c>
       <c r="J53" t="s">
-        <v>188</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>187</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>272</v>
       </c>
       <c r="G54" t="s">
-        <v>57</v>
+        <v>322</v>
       </c>
       <c r="J54" t="s">
-        <v>189</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>32</v>
-      </c>
-      <c r="D55" t="s">
-        <v>63</v>
+        <v>188</v>
+      </c>
+      <c r="G55" t="s">
+        <v>323</v>
       </c>
       <c r="J55" t="s">
-        <v>190</v>
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>189</v>
+      </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G56" t="s">
-        <v>58</v>
+        <v>324</v>
       </c>
       <c r="J56" t="s">
-        <v>191</v>
+        <v>457</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>33</v>
+        <v>190</v>
+      </c>
+      <c r="D57" t="s">
+        <v>24</v>
       </c>
       <c r="G57" t="s">
-        <v>148</v>
+        <v>325</v>
       </c>
       <c r="J57" t="s">
-        <v>192</v>
+        <v>323</v>
       </c>
     </row>
     <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>191</v>
+      </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G58" t="s">
-        <v>149</v>
+        <v>326</v>
       </c>
       <c r="J58" t="s">
-        <v>193</v>
+        <v>324</v>
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" t="s">
-        <v>34</v>
-      </c>
       <c r="D59" t="s">
-        <v>127</v>
+        <v>273</v>
       </c>
       <c r="G59" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="J59" t="s">
-        <v>194</v>
+        <v>325</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>35</v>
-      </c>
-      <c r="D60" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>151</v>
+        <v>327</v>
       </c>
       <c r="J60" t="s">
-        <v>195</v>
+        <v>326</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>36</v>
+        <v>24</v>
+      </c>
+      <c r="D61" t="s">
+        <v>26</v>
       </c>
       <c r="G61" t="s">
-        <v>152</v>
+        <v>328</v>
       </c>
       <c r="J61" t="s">
-        <v>196</v>
+        <v>327</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>37</v>
-      </c>
-      <c r="D62" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="G62" t="s">
-        <v>153</v>
+        <v>329</v>
       </c>
       <c r="J62" t="s">
-        <v>197</v>
+        <v>329</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>38</v>
+        <v>192</v>
+      </c>
+      <c r="D63" t="s">
+        <v>274</v>
       </c>
       <c r="G63" t="s">
-        <v>154</v>
+        <v>330</v>
       </c>
       <c r="J63" t="s">
-        <v>198</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="D64" t="s">
-        <v>128</v>
+        <v>275</v>
       </c>
       <c r="G64" t="s">
-        <v>155</v>
+        <v>331</v>
+      </c>
+      <c r="J64" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="D65" t="s">
+        <v>84</v>
       </c>
       <c r="G65" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="J65" t="s">
-        <v>10</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" t="s">
-        <v>39</v>
-      </c>
       <c r="D66" t="s">
-        <v>71</v>
+        <v>197</v>
       </c>
       <c r="G66" t="s">
-        <v>157</v>
+        <v>332</v>
       </c>
       <c r="J66" t="s">
-        <v>63</v>
+        <v>333</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>193</v>
       </c>
       <c r="G67" t="s">
-        <v>158</v>
+        <v>333</v>
       </c>
       <c r="J67" t="s">
-        <v>10</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>40</v>
+        <v>109</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
       </c>
       <c r="G68" t="s">
-        <v>159</v>
+        <v>334</v>
+      </c>
+      <c r="J68" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="69" spans="1:10">
+      <c r="A69" t="s">
+        <v>194</v>
+      </c>
       <c r="D69" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" t="s">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="J69" t="s">
-        <v>10</v>
+        <v>459</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="D70" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>161</v>
-      </c>
-      <c r="J70" t="s">
-        <v>199</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:10">
+      <c r="A71" t="s">
+        <v>196</v>
+      </c>
       <c r="D71" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" t="s">
-        <v>162</v>
+        <v>276</v>
       </c>
       <c r="J71" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>42</v>
+        <v>197</v>
       </c>
       <c r="G72" t="s">
-        <v>163</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" t="s">
-        <v>43</v>
-      </c>
       <c r="D73" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="J73" t="s">
-        <v>65</v>
+        <v>460</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="G74" t="s">
-        <v>165</v>
+        <v>335</v>
+      </c>
+      <c r="J74" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D75" t="s">
-        <v>130</v>
+        <v>277</v>
       </c>
       <c r="G75" t="s">
-        <v>166</v>
+        <v>336</v>
       </c>
       <c r="J75" t="s">
-        <v>200</v>
+        <v>462</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>46</v>
+        <v>7</v>
+      </c>
+      <c r="D76" t="s">
+        <v>278</v>
+      </c>
+      <c r="G76" t="s">
+        <v>337</v>
       </c>
       <c r="J76" t="s">
-        <v>201</v>
+        <v>463</v>
       </c>
     </row>
     <row r="77" spans="1:10">
+      <c r="A77" t="s">
+        <v>198</v>
+      </c>
       <c r="D77" t="s">
-        <v>83</v>
+        <v>279</v>
       </c>
       <c r="G77" t="s">
-        <v>10</v>
+        <v>338</v>
+      </c>
+      <c r="J77" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" t="s">
-        <v>10</v>
+      <c r="D78" t="s">
+        <v>280</v>
       </c>
       <c r="G78" t="s">
-        <v>63</v>
+        <v>339</v>
       </c>
       <c r="J78" t="s">
-        <v>71</v>
+        <v>465</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>47</v>
+        <v>34</v>
+      </c>
+      <c r="D79" t="s">
+        <v>281</v>
       </c>
       <c r="G79" t="s">
-        <v>10</v>
+        <v>340</v>
+      </c>
+      <c r="J79" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" t="s">
-        <v>10</v>
-      </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>88</v>
+      </c>
+      <c r="J80" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>48</v>
+        <v>199</v>
       </c>
       <c r="D81" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="G81" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J81" t="s">
-        <v>10</v>
+        <v>218</v>
       </c>
     </row>
     <row r="82" spans="1:10">
+      <c r="A82" t="s">
+        <v>200</v>
+      </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="G82" t="s">
-        <v>167</v>
-      </c>
-      <c r="J82" t="s">
-        <v>202</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>49</v>
+        <v>201</v>
+      </c>
+      <c r="D83" t="s">
+        <v>282</v>
       </c>
       <c r="G83" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J83" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:10">
+      <c r="A84" t="s">
+        <v>202</v>
+      </c>
       <c r="D84" t="s">
-        <v>90</v>
+        <v>283</v>
+      </c>
+      <c r="G84" t="s">
+        <v>20</v>
+      </c>
+      <c r="J84" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>50</v>
-      </c>
-      <c r="G85" t="s">
-        <v>65</v>
+        <v>203</v>
+      </c>
+      <c r="D85" t="s">
+        <v>284</v>
       </c>
       <c r="J85" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>51</v>
+        <v>204</v>
       </c>
       <c r="D86" t="s">
-        <v>130</v>
+        <v>285</v>
+      </c>
+      <c r="G86" t="s">
+        <v>21</v>
+      </c>
+      <c r="J86" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>52</v>
-      </c>
-      <c r="G87" t="s">
-        <v>69</v>
-      </c>
-      <c r="J87" t="s">
-        <v>203</v>
+        <v>207</v>
+      </c>
+      <c r="D87" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>53</v>
+        <v>249</v>
       </c>
       <c r="D88" t="s">
-        <v>96</v>
+        <v>287</v>
       </c>
       <c r="G88" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="J88" t="s">
-        <v>204</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>54</v>
+        <v>250</v>
+      </c>
+      <c r="D89" t="s">
+        <v>288</v>
       </c>
       <c r="G89" t="s">
-        <v>168</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:10">
+      <c r="A90" t="s">
+        <v>210</v>
+      </c>
+      <c r="D90" t="s">
+        <v>289</v>
+      </c>
+      <c r="G90" t="s">
+        <v>182</v>
+      </c>
       <c r="J90" t="s">
-        <v>83</v>
+        <v>383</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>10</v>
-      </c>
-      <c r="D91" t="s">
-        <v>10</v>
+        <v>209</v>
       </c>
       <c r="G91" t="s">
-        <v>71</v>
+        <v>183</v>
+      </c>
+      <c r="J91" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>55</v>
+        <v>251</v>
       </c>
       <c r="D92" t="s">
-        <v>132</v>
+        <v>7</v>
+      </c>
+      <c r="G92" t="s">
+        <v>341</v>
+      </c>
+      <c r="J92" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" t="s">
-        <v>10</v>
+        <v>252</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="G93" t="s">
+        <v>270</v>
       </c>
       <c r="J93" t="s">
-        <v>10</v>
+        <v>386</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" t="s">
-        <v>56</v>
+        <v>208</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
       </c>
       <c r="G94" t="s">
-        <v>10</v>
+        <v>342</v>
       </c>
       <c r="J94" t="s">
-        <v>205</v>
+        <v>467</v>
       </c>
     </row>
     <row r="95" spans="1:10">
-      <c r="D95" t="s">
-        <v>103</v>
+      <c r="A95" t="s">
+        <v>253</v>
       </c>
       <c r="G95" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="J95" t="s">
-        <v>10</v>
+        <v>342</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" t="s">
-        <v>57</v>
-      </c>
-      <c r="G96" t="s">
-        <v>10</v>
+        <v>126</v>
+      </c>
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+      <c r="J96" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="97" spans="1:10">
+      <c r="A97" t="s">
+        <v>124</v>
+      </c>
       <c r="D97" t="s">
-        <v>133</v>
+        <v>91</v>
+      </c>
+      <c r="G97" t="s">
+        <v>7</v>
       </c>
       <c r="J97" t="s">
-        <v>90</v>
+        <v>190</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" t="s">
-        <v>58</v>
+        <v>123</v>
+      </c>
+      <c r="D98" t="s">
+        <v>7</v>
       </c>
       <c r="G98" t="s">
-        <v>77</v>
+        <v>24</v>
+      </c>
+      <c r="J98" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" t="s">
-        <v>59</v>
-      </c>
-      <c r="D99" t="s">
-        <v>109</v>
-      </c>
-      <c r="J99" t="s">
-        <v>206</v>
+        <v>127</v>
+      </c>
+      <c r="G99" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" t="s">
-        <v>60</v>
+        <v>128</v>
+      </c>
+      <c r="D100" t="s">
+        <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="J100" t="s">
-        <v>204</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" t="s">
-        <v>61</v>
-      </c>
-      <c r="G101" t="s">
-        <v>170</v>
+      <c r="J101" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" t="s">
-        <v>62</v>
+        <v>7</v>
+      </c>
+      <c r="D102" t="s">
+        <v>290</v>
       </c>
       <c r="G102" t="s">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="J102" t="s">
-        <v>96</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" t="s">
+        <v>40</v>
+      </c>
+      <c r="D103" t="s">
+        <v>291</v>
+      </c>
+      <c r="J103" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="D104" t="s">
+        <v>92</v>
       </c>
       <c r="G104" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" t="s">
-        <v>63</v>
+      <c r="D105" t="s">
+        <v>216</v>
+      </c>
+      <c r="G105" t="s">
+        <v>28</v>
       </c>
       <c r="J105" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" t="s">
-        <v>10</v>
-      </c>
-      <c r="J106" t="s">
-        <v>207</v>
+        <v>7</v>
+      </c>
+      <c r="G106" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="107" spans="1:10">
+      <c r="A107" t="s">
+        <v>211</v>
+      </c>
+      <c r="D107" t="s">
+        <v>47</v>
+      </c>
       <c r="G107" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G108" t="s">
-        <v>172</v>
+        <v>31</v>
+      </c>
+      <c r="J108" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109" t="s">
-        <v>64</v>
+      <c r="D109" t="s">
+        <v>221</v>
       </c>
       <c r="G109" t="s">
-        <v>10</v>
+        <v>343</v>
       </c>
       <c r="J109" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>41</v>
+      </c>
+      <c r="D110" t="s">
+        <v>218</v>
+      </c>
+      <c r="G110" t="s">
+        <v>344</v>
+      </c>
+      <c r="J110" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="111" spans="1:10">
+      <c r="D111" t="s">
+        <v>219</v>
+      </c>
       <c r="G111" t="s">
-        <v>90</v>
+        <v>345</v>
       </c>
       <c r="J111" t="s">
-        <v>208</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="D112" t="s">
+        <v>220</v>
+      </c>
+      <c r="G112" t="s">
+        <v>15</v>
       </c>
       <c r="J112" t="s">
-        <v>209</v>
+        <v>343</v>
       </c>
     </row>
     <row r="113" spans="1:10">
+      <c r="A113" t="s">
+        <v>212</v>
+      </c>
+      <c r="D113" t="s">
+        <v>292</v>
+      </c>
       <c r="G113" t="s">
-        <v>94</v>
+        <v>109</v>
+      </c>
+      <c r="J113" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" t="s">
-        <v>66</v>
+        <v>213</v>
       </c>
       <c r="G114" t="s">
-        <v>95</v>
+        <v>346</v>
       </c>
       <c r="J114" t="s">
-        <v>109</v>
+        <v>345</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" t="s">
-        <v>67</v>
+        <v>214</v>
+      </c>
+      <c r="D115" t="s">
+        <v>7</v>
       </c>
       <c r="G115" t="s">
-        <v>173</v>
+        <v>347</v>
+      </c>
+      <c r="J115" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" t="s">
-        <v>68</v>
+        <v>215</v>
+      </c>
+      <c r="D116" t="s">
+        <v>293</v>
+      </c>
+      <c r="G116" t="s">
+        <v>74</v>
+      </c>
+      <c r="J116" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" t="s">
-        <v>69</v>
+        <v>216</v>
+      </c>
+      <c r="D117" t="s">
+        <v>7</v>
       </c>
       <c r="G117" t="s">
-        <v>96</v>
+        <v>348</v>
+      </c>
+      <c r="J117" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="118" spans="1:10">
-      <c r="A118" t="s">
-        <v>70</v>
+      <c r="G118" t="s">
+        <v>349</v>
+      </c>
+      <c r="J118" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" t="s">
+        <v>47</v>
+      </c>
+      <c r="D119" t="s">
+        <v>50</v>
+      </c>
+      <c r="G119" t="s">
+        <v>350</v>
+      </c>
+      <c r="J119" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="120" spans="1:10">
-      <c r="A120" t="s">
-        <v>71</v>
-      </c>
       <c r="G120" t="s">
-        <v>10</v>
+        <v>351</v>
+      </c>
+      <c r="J120" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="121" spans="1:10">
+      <c r="A121" t="s">
+        <v>217</v>
+      </c>
+      <c r="D121" t="s">
+        <v>294</v>
+      </c>
       <c r="G121" t="s">
-        <v>174</v>
+        <v>352</v>
+      </c>
+      <c r="J121" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" t="s">
-        <v>72</v>
+        <v>218</v>
+      </c>
+      <c r="D122" t="s">
+        <v>295</v>
       </c>
       <c r="G122" t="s">
-        <v>10</v>
+        <v>110</v>
+      </c>
+      <c r="J122" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" t="s">
-        <v>73</v>
+        <v>219</v>
+      </c>
+      <c r="D123" t="s">
+        <v>94</v>
+      </c>
+      <c r="G123" t="s">
+        <v>353</v>
+      </c>
+      <c r="J123" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" t="s">
-        <v>74</v>
-      </c>
-      <c r="G124" t="s">
-        <v>103</v>
+        <v>220</v>
+      </c>
+      <c r="D124" t="s">
+        <v>227</v>
+      </c>
+      <c r="J124" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" t="s">
-        <v>75</v>
+        <v>221</v>
+      </c>
+      <c r="G125" t="s">
+        <v>7</v>
+      </c>
+      <c r="J125" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="126" spans="1:10">
-      <c r="A126" t="s">
-        <v>45</v>
+      <c r="D126" t="s">
+        <v>56</v>
       </c>
       <c r="G126" t="s">
-        <v>108</v>
+        <v>32</v>
+      </c>
+      <c r="J126" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="127" spans="1:10">
+      <c r="A127" t="s">
+        <v>7</v>
+      </c>
       <c r="G127" t="s">
-        <v>175</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" t="s">
-        <v>10</v>
+        <v>222</v>
+      </c>
+      <c r="D128" t="s">
+        <v>232</v>
       </c>
       <c r="G128" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+        <v>33</v>
+      </c>
+      <c r="J128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" t="s">
+        <v>7</v>
+      </c>
+      <c r="D129" t="s">
+        <v>296</v>
+      </c>
+      <c r="J129" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="D130" t="s">
+        <v>297</v>
+      </c>
+      <c r="G130" t="s">
+        <v>34</v>
+      </c>
+      <c r="J130" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" t="s">
+        <v>50</v>
+      </c>
+      <c r="D131" t="s">
+        <v>298</v>
+      </c>
+      <c r="J131" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="D132" t="s">
+        <v>299</v>
+      </c>
+      <c r="G132" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" t="s">
+        <v>134</v>
+      </c>
+      <c r="G133" t="s">
+        <v>36</v>
+      </c>
+      <c r="J133" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" t="s">
+        <v>223</v>
+      </c>
+      <c r="D134" t="s">
+        <v>7</v>
+      </c>
+      <c r="G134" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" t="s">
+        <v>224</v>
+      </c>
+      <c r="D135" t="s">
+        <v>300</v>
+      </c>
+      <c r="G135" t="s">
+        <v>38</v>
+      </c>
+      <c r="J135" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" t="s">
+        <v>225</v>
+      </c>
+      <c r="D136" t="s">
+        <v>7</v>
+      </c>
+      <c r="G136" t="s">
+        <v>39</v>
+      </c>
+      <c r="J136" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" t="s">
+        <v>226</v>
+      </c>
+      <c r="G137" t="s">
+        <v>354</v>
+      </c>
+      <c r="J137" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" t="s">
+        <v>227</v>
+      </c>
+      <c r="D138" t="s">
+        <v>60</v>
+      </c>
+      <c r="G138" t="s">
+        <v>355</v>
+      </c>
+      <c r="J138" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="G139" t="s">
+        <v>356</v>
+      </c>
+      <c r="J139" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" t="s">
+        <v>56</v>
+      </c>
+      <c r="D140" t="s">
+        <v>301</v>
+      </c>
+      <c r="G140" t="s">
+        <v>357</v>
+      </c>
+      <c r="J140" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="D141" t="s">
+        <v>295</v>
+      </c>
+      <c r="G141" t="s">
+        <v>358</v>
+      </c>
+      <c r="J141" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" t="s">
+        <v>228</v>
+      </c>
+      <c r="D142" t="s">
+        <v>94</v>
+      </c>
+      <c r="G142" t="s">
+        <v>359</v>
+      </c>
+      <c r="J142" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" t="s">
+        <v>229</v>
+      </c>
+      <c r="D143" t="s">
+        <v>227</v>
+      </c>
+      <c r="G143" t="s">
+        <v>360</v>
+      </c>
+      <c r="J143" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" t="s">
+        <v>230</v>
+      </c>
+      <c r="G144" t="s">
+        <v>361</v>
+      </c>
+      <c r="J144" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" t="s">
+        <v>231</v>
+      </c>
+      <c r="D145" t="s">
+        <v>66</v>
+      </c>
+      <c r="G145" t="s">
+        <v>362</v>
+      </c>
+      <c r="J145" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" t="s">
+        <v>232</v>
+      </c>
+      <c r="G146" t="s">
+        <v>363</v>
+      </c>
+      <c r="J146" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="D147" t="s">
+        <v>241</v>
+      </c>
+      <c r="G147" t="s">
+        <v>364</v>
+      </c>
+      <c r="J147" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" t="s">
+        <v>7</v>
+      </c>
+      <c r="D148" t="s">
+        <v>296</v>
+      </c>
+      <c r="G148" t="s">
+        <v>365</v>
+      </c>
+      <c r="J148" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149" t="s">
+        <v>233</v>
+      </c>
+      <c r="D149" t="s">
+        <v>297</v>
+      </c>
+      <c r="G149" t="s">
+        <v>366</v>
+      </c>
+      <c r="J149" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" t="s">
+        <v>298</v>
+      </c>
+      <c r="G150" t="s">
+        <v>367</v>
+      </c>
+      <c r="J150" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="D151" t="s">
+        <v>299</v>
+      </c>
+      <c r="G151" t="s">
+        <v>368</v>
+      </c>
+      <c r="J151" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152" t="s">
+        <v>60</v>
+      </c>
+      <c r="J152" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="D153" t="s">
+        <v>7</v>
+      </c>
+      <c r="G153" t="s">
+        <v>7</v>
+      </c>
+      <c r="J153" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="A154" t="s">
+        <v>65</v>
+      </c>
+      <c r="D154" t="s">
+        <v>96</v>
+      </c>
+      <c r="G154" t="s">
+        <v>40</v>
+      </c>
+      <c r="J154" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155" t="s">
+        <v>234</v>
+      </c>
+      <c r="D155" t="s">
+        <v>7</v>
+      </c>
+      <c r="G155" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156" t="s">
+        <v>235</v>
+      </c>
+      <c r="J156" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157" t="s">
+        <v>236</v>
+      </c>
+      <c r="D157" t="s">
+        <v>70</v>
+      </c>
+      <c r="G157" t="s">
+        <v>7</v>
+      </c>
+      <c r="J157" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" t="s">
+        <v>226</v>
+      </c>
+      <c r="G158" t="s">
+        <v>369</v>
+      </c>
+      <c r="J158" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="A159" t="s">
+        <v>227</v>
+      </c>
+      <c r="D159" t="s">
+        <v>302</v>
+      </c>
+      <c r="G159" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="D160" t="s">
+        <v>303</v>
+      </c>
+      <c r="J160" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161" t="s">
+        <v>66</v>
+      </c>
+      <c r="D161" t="s">
+        <v>97</v>
+      </c>
+      <c r="G161" t="s">
+        <v>41</v>
+      </c>
+      <c r="J161" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="D162" t="s">
+        <v>197</v>
+      </c>
+      <c r="J162" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163" t="s">
+        <v>237</v>
+      </c>
+      <c r="G163" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164" t="s">
+        <v>238</v>
+      </c>
+      <c r="D164" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
-      <c r="A132" t="s">
+      <c r="G164" t="s">
+        <v>43</v>
+      </c>
+      <c r="J164" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165" t="s">
+        <v>239</v>
+      </c>
+      <c r="G165" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166" t="s">
+        <v>240</v>
+      </c>
+      <c r="D166" t="s">
+        <v>248</v>
+      </c>
+      <c r="G166" t="s">
+        <v>45</v>
+      </c>
+      <c r="J166" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="A167" t="s">
+        <v>241</v>
+      </c>
+      <c r="D167" t="s">
+        <v>245</v>
+      </c>
+      <c r="G167" t="s">
+        <v>46</v>
+      </c>
+      <c r="J167" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="D168" t="s">
+        <v>246</v>
+      </c>
+      <c r="G168" t="s">
+        <v>370</v>
+      </c>
+      <c r="J168" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
+      <c r="A169" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169" t="s">
+        <v>247</v>
+      </c>
+      <c r="G169" t="s">
+        <v>371</v>
+      </c>
+      <c r="J169" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="A170" t="s">
+        <v>96</v>
+      </c>
+      <c r="D170" t="s">
+        <v>272</v>
+      </c>
+      <c r="G170" t="s">
+        <v>372</v>
+      </c>
+      <c r="J170" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
+      <c r="A171" t="s">
+        <v>7</v>
+      </c>
+      <c r="G171" t="s">
+        <v>373</v>
+      </c>
+      <c r="J171" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
+      <c r="G172" t="s">
+        <v>374</v>
+      </c>
+      <c r="J172" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
+      <c r="A173" t="s">
+        <v>70</v>
+      </c>
+      <c r="G173" t="s">
+        <v>375</v>
+      </c>
+      <c r="J173" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="G174" t="s">
+        <v>376</v>
+      </c>
+      <c r="J174" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="A175" t="s">
+        <v>139</v>
+      </c>
+      <c r="G175" t="s">
+        <v>349</v>
+      </c>
+      <c r="J175" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="A176" t="s">
+        <v>196</v>
+      </c>
+      <c r="G176" t="s">
+        <v>377</v>
+      </c>
+      <c r="J176" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
+      <c r="A177" t="s">
+        <v>242</v>
+      </c>
+      <c r="G177" t="s">
+        <v>378</v>
+      </c>
+      <c r="J177" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
+      <c r="A178" t="s">
+        <v>243</v>
+      </c>
+      <c r="G178" t="s">
+        <v>379</v>
+      </c>
+      <c r="J178" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
+      <c r="A179" t="s">
+        <v>244</v>
+      </c>
+      <c r="G179" t="s">
+        <v>380</v>
+      </c>
+      <c r="J179" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
+      <c r="A180" t="s">
+        <v>197</v>
+      </c>
+      <c r="G180" t="s">
+        <v>381</v>
+      </c>
+      <c r="J180" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
+      <c r="G181" t="s">
+        <v>382</v>
+      </c>
+      <c r="J181" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
+      <c r="A182" t="s">
+        <v>76</v>
+      </c>
+      <c r="G182" t="s">
+        <v>334</v>
+      </c>
+      <c r="J182" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
+      <c r="J183" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
+      <c r="A184" t="s">
+        <v>191</v>
+      </c>
+      <c r="G184" t="s">
+        <v>47</v>
+      </c>
+      <c r="J184" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
+      <c r="A185" t="s">
+        <v>245</v>
+      </c>
+      <c r="J185" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
+      <c r="A186" t="s">
+        <v>246</v>
+      </c>
+      <c r="G186" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
+      <c r="A187" t="s">
+        <v>247</v>
+      </c>
+      <c r="G187" t="s">
+        <v>383</v>
+      </c>
+      <c r="J187" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
+      <c r="A188" t="s">
+        <v>248</v>
+      </c>
+      <c r="G188" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
+      <c r="G189" t="s">
+        <v>385</v>
+      </c>
+      <c r="J189" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
+      <c r="G190" t="s">
+        <v>386</v>
+      </c>
+      <c r="J190" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
+      <c r="G191" t="s">
+        <v>387</v>
+      </c>
+      <c r="J191" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
+      <c r="G192" t="s">
+        <v>341</v>
+      </c>
+      <c r="J192" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="193" spans="7:10">
+      <c r="G193" t="s">
+        <v>221</v>
+      </c>
+      <c r="J193" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="194" spans="7:10">
+      <c r="J194" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="195" spans="7:10">
+      <c r="G195" t="s">
+        <v>7</v>
+      </c>
+      <c r="J195" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="196" spans="7:10">
+      <c r="G196" t="s">
+        <v>49</v>
+      </c>
+      <c r="J196" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="197" spans="7:10">
+      <c r="G197" t="s">
+        <v>7</v>
+      </c>
+      <c r="J197" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="199" spans="7:10">
+      <c r="G199" t="s">
+        <v>50</v>
+      </c>
+      <c r="J199" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="7:10">
+      <c r="J200" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="201" spans="7:10">
+      <c r="G201" t="s">
+        <v>51</v>
+      </c>
+      <c r="J201" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="7:10">
+      <c r="G202" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="203" spans="7:10">
+      <c r="G203" t="s">
+        <v>53</v>
+      </c>
+      <c r="J203" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="204" spans="7:10">
+      <c r="G204" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="205" spans="7:10">
+      <c r="G205" t="s">
+        <v>55</v>
+      </c>
+      <c r="J205" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="206" spans="7:10">
+      <c r="G206" t="s">
+        <v>134</v>
+      </c>
+      <c r="J206" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="207" spans="7:10">
+      <c r="G207" t="s">
+        <v>388</v>
+      </c>
+      <c r="J207" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="208" spans="7:10">
+      <c r="G208" t="s">
+        <v>389</v>
+      </c>
+      <c r="J208" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="209" spans="7:10">
+      <c r="G209" t="s">
+        <v>390</v>
+      </c>
+      <c r="J209" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="210" spans="7:10">
+      <c r="G210" t="s">
+        <v>391</v>
+      </c>
+      <c r="J210" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="211" spans="7:10">
+      <c r="G211" t="s">
+        <v>392</v>
+      </c>
+      <c r="J211" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="212" spans="7:10">
+      <c r="G212" t="s">
+        <v>393</v>
+      </c>
+      <c r="J212" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="213" spans="7:10">
+      <c r="G213" t="s">
+        <v>394</v>
+      </c>
+      <c r="J213" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="214" spans="7:10">
+      <c r="G214" t="s">
+        <v>395</v>
+      </c>
+      <c r="J214" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="215" spans="7:10">
+      <c r="G215" t="s">
+        <v>396</v>
+      </c>
+      <c r="J215" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="216" spans="7:10">
+      <c r="G216" t="s">
+        <v>397</v>
+      </c>
+      <c r="J216" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="217" spans="7:10">
+      <c r="G217" t="s">
+        <v>398</v>
+      </c>
+      <c r="J217" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="218" spans="7:10">
+      <c r="G218" t="s">
+        <v>399</v>
+      </c>
+      <c r="J218" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="219" spans="7:10">
+      <c r="G219" t="s">
+        <v>135</v>
+      </c>
+      <c r="J219" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="220" spans="7:10">
+      <c r="G220" t="s">
+        <v>400</v>
+      </c>
+      <c r="J220" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="221" spans="7:10">
+      <c r="J221" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="222" spans="7:10">
+      <c r="G222" t="s">
+        <v>56</v>
+      </c>
+      <c r="J222" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="223" spans="7:10">
+      <c r="J223" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="224" spans="7:10">
+      <c r="G224" t="s">
+        <v>57</v>
+      </c>
+      <c r="J224" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="225" spans="7:10">
+      <c r="G225" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="226" spans="7:10">
+      <c r="G226" t="s">
+        <v>401</v>
+      </c>
+      <c r="J226" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="227" spans="7:10">
+      <c r="G227" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="228" spans="7:10">
+      <c r="G228" t="s">
+        <v>403</v>
+      </c>
+      <c r="J228" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="229" spans="7:10">
+      <c r="G229" t="s">
+        <v>404</v>
+      </c>
+      <c r="J229" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="230" spans="7:10">
+      <c r="G230" t="s">
+        <v>405</v>
+      </c>
+      <c r="J230" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="231" spans="7:10">
+      <c r="G231" t="s">
+        <v>406</v>
+      </c>
+      <c r="J231" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="232" spans="7:10">
+      <c r="J232" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="233" spans="7:10">
+      <c r="G233" t="s">
+        <v>7</v>
+      </c>
+      <c r="J233" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="234" spans="7:10">
+      <c r="G234" t="s">
+        <v>59</v>
+      </c>
+      <c r="J234" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="235" spans="7:10">
+      <c r="G235" t="s">
+        <v>7</v>
+      </c>
+      <c r="J235" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="236" spans="7:10">
+      <c r="J236" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="237" spans="7:10">
+      <c r="G237" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="238" spans="7:10">
+      <c r="J238" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="7:10">
+      <c r="G239" t="s">
+        <v>61</v>
+      </c>
+      <c r="J239" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="240" spans="7:10">
+      <c r="G240" t="s">
+        <v>62</v>
+      </c>
+      <c r="J240" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241" spans="7:10">
+      <c r="G241" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="242" spans="7:10">
+      <c r="G242" t="s">
+        <v>64</v>
+      </c>
+      <c r="J242" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="243" spans="7:10">
+      <c r="G243" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="244" spans="7:10">
+      <c r="G244" t="s">
+        <v>407</v>
+      </c>
+      <c r="J244" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="245" spans="7:10">
+      <c r="G245" t="s">
+        <v>408</v>
+      </c>
+      <c r="J245" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="246" spans="7:10">
+      <c r="G246" t="s">
+        <v>409</v>
+      </c>
+      <c r="J246" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="247" spans="7:10">
+      <c r="G247" t="s">
+        <v>410</v>
+      </c>
+      <c r="J247" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="248" spans="7:10">
+      <c r="G248" t="s">
+        <v>411</v>
+      </c>
+      <c r="J248" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="249" spans="7:10">
+      <c r="G249" t="s">
+        <v>412</v>
+      </c>
+      <c r="J249" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="250" spans="7:10">
+      <c r="G250" t="s">
+        <v>413</v>
+      </c>
+      <c r="J250" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="251" spans="7:10">
+      <c r="G251" t="s">
+        <v>414</v>
+      </c>
+      <c r="J251" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="252" spans="7:10">
+      <c r="G252" t="s">
+        <v>415</v>
+      </c>
+      <c r="J252" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="253" spans="7:10">
+      <c r="G253" t="s">
+        <v>416</v>
+      </c>
+      <c r="J253" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="254" spans="7:10">
+      <c r="G254" t="s">
+        <v>417</v>
+      </c>
+      <c r="J254" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="255" spans="7:10">
+      <c r="G255" t="s">
+        <v>418</v>
+      </c>
+      <c r="J255" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="256" spans="7:10">
+      <c r="G256" t="s">
+        <v>419</v>
+      </c>
+      <c r="J256" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="257" spans="7:10">
+      <c r="G257" t="s">
+        <v>420</v>
+      </c>
+      <c r="J257" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="258" spans="7:10">
+      <c r="G258" t="s">
+        <v>421</v>
+      </c>
+      <c r="J258" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="259" spans="7:10">
+      <c r="J259" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="260" spans="7:10">
+      <c r="G260" t="s">
+        <v>66</v>
+      </c>
+      <c r="J260" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="261" spans="7:10">
+      <c r="J261" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="262" spans="7:10">
+      <c r="G262" t="s">
+        <v>67</v>
+      </c>
+      <c r="J262" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="263" spans="7:10">
+      <c r="G263" t="s">
+        <v>68</v>
+      </c>
+      <c r="J263" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="264" spans="7:10">
+      <c r="G264" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="265" spans="7:10">
+      <c r="G265" t="s">
+        <v>423</v>
+      </c>
+      <c r="J265" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="266" spans="7:10">
+      <c r="G266" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="267" spans="7:10">
+      <c r="G267" t="s">
+        <v>425</v>
+      </c>
+      <c r="J267" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="268" spans="7:10">
+      <c r="G268" t="s">
+        <v>426</v>
+      </c>
+      <c r="J268" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="269" spans="7:10">
+      <c r="G269" t="s">
+        <v>427</v>
+      </c>
+      <c r="J269" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="270" spans="7:10">
+      <c r="J270" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="271" spans="7:10">
+      <c r="G271" t="s">
+        <v>7</v>
+      </c>
+      <c r="J271" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="272" spans="7:10">
+      <c r="G272" t="s">
+        <v>69</v>
+      </c>
+      <c r="J272" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="273" spans="7:10">
+      <c r="G273" t="s">
+        <v>7</v>
+      </c>
+      <c r="J273" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="274" spans="7:10">
+      <c r="J274" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="275" spans="7:10">
+      <c r="G275" t="s">
+        <v>70</v>
+      </c>
+      <c r="J275" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="277" spans="7:10">
+      <c r="G277" t="s">
+        <v>71</v>
+      </c>
+      <c r="J277" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278" spans="7:10">
+      <c r="G278" t="s">
+        <v>72</v>
+      </c>
+      <c r="J278" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="279" spans="7:10">
+      <c r="G279" t="s">
+        <v>73</v>
+      </c>
+      <c r="J279" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="7:10">
+      <c r="G280" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="281" spans="7:10">
+      <c r="G281" t="s">
+        <v>75</v>
+      </c>
+      <c r="J281" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="282" spans="7:10">
+      <c r="G282" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="283" spans="7:10">
+      <c r="G283" t="s">
+        <v>428</v>
+      </c>
+      <c r="J283" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="284" spans="7:10">
+      <c r="G284" t="s">
+        <v>429</v>
+      </c>
+      <c r="J284" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="285" spans="7:10">
+      <c r="G285" t="s">
+        <v>430</v>
+      </c>
+      <c r="J285" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="286" spans="7:10">
+      <c r="G286" t="s">
+        <v>431</v>
+      </c>
+      <c r="J286" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="287" spans="7:10">
+      <c r="G287" t="s">
+        <v>327</v>
+      </c>
+      <c r="J287" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="288" spans="7:10">
+      <c r="G288" t="s">
+        <v>348</v>
+      </c>
+      <c r="J288" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="289" spans="7:10">
+      <c r="G289" t="s">
+        <v>432</v>
+      </c>
+      <c r="J289" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="290" spans="7:10">
+      <c r="G290" t="s">
+        <v>433</v>
+      </c>
+      <c r="J290" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="291" spans="7:10">
+      <c r="G291" t="s">
+        <v>434</v>
+      </c>
+      <c r="J291" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="292" spans="7:10">
+      <c r="G292" t="s">
+        <v>435</v>
+      </c>
+      <c r="J292" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="293" spans="7:10">
+      <c r="G293" t="s">
+        <v>332</v>
+      </c>
+      <c r="J293" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="294" spans="7:10">
+      <c r="G294" t="s">
+        <v>353</v>
+      </c>
+      <c r="J294" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="295" spans="7:10">
+      <c r="G295" t="s">
+        <v>436</v>
+      </c>
+      <c r="J295" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="296" spans="7:10">
+      <c r="G296" t="s">
+        <v>437</v>
+      </c>
+      <c r="J296" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="297" spans="7:10">
+      <c r="J297" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="298" spans="7:10">
+      <c r="G298" t="s">
+        <v>76</v>
+      </c>
+      <c r="J298" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="299" spans="7:10">
+      <c r="J299" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="300" spans="7:10">
+      <c r="G300" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134" t="s">
+      <c r="J300" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="301" spans="7:10">
+      <c r="G301" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="135" spans="1:7">
-      <c r="A135" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
-      <c r="A136" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
-      <c r="A137" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
-      <c r="A138" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
-      <c r="A140" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
-      <c r="A142" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="A143" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="A144" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
-        <v>114</v>
+      <c r="J301" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="302" spans="7:10">
+      <c r="G302" t="s">
+        <v>438</v>
+      </c>
+      <c r="J302" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="303" spans="7:10">
+      <c r="G303" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="304" spans="7:10">
+      <c r="G304" t="s">
+        <v>440</v>
+      </c>
+      <c r="J304" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="305" spans="7:10">
+      <c r="G305" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="306" spans="7:10">
+      <c r="G306" t="s">
+        <v>441</v>
+      </c>
+      <c r="J306" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="307" spans="7:10">
+      <c r="G307" t="s">
+        <v>442</v>
+      </c>
+      <c r="J307" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="308" spans="7:10">
+      <c r="J308" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="309" spans="7:10">
+      <c r="J309" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="310" spans="7:10">
+      <c r="J310" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="311" spans="7:10">
+      <c r="J311" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="312" spans="7:10">
+      <c r="J312" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="313" spans="7:10">
+      <c r="J313" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="314" spans="7:10">
+      <c r="J314" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2458,12 +4996,929 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A108:G236"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" t="s">
+        <v>7</v>
+      </c>
+      <c r="G108" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>79</v>
+      </c>
+      <c r="D109" t="s">
+        <v>79</v>
+      </c>
+      <c r="G109" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" t="s">
+        <v>7</v>
+      </c>
+      <c r="G110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>512</v>
+      </c>
+      <c r="D111" t="s">
+        <v>80</v>
+      </c>
+      <c r="G111" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>81</v>
+      </c>
+      <c r="D113" t="s">
+        <v>81</v>
+      </c>
+      <c r="G113" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>167</v>
+      </c>
+      <c r="D115" t="s">
+        <v>82</v>
+      </c>
+      <c r="G115" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
+        <v>103</v>
+      </c>
+      <c r="G116" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="D117" t="s">
+        <v>4</v>
+      </c>
+      <c r="G117" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="G119" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="D120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" t="s">
+        <v>7</v>
+      </c>
+      <c r="G122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123" t="s">
+        <v>83</v>
+      </c>
+      <c r="G123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
+        <v>513</v>
+      </c>
+      <c r="G124" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="D125" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="D127" t="s">
+        <v>84</v>
+      </c>
+      <c r="G127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" t="s">
+        <v>106</v>
+      </c>
+      <c r="D129" t="s">
+        <v>16</v>
+      </c>
+      <c r="G129" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="G130" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" t="s">
+        <v>16</v>
+      </c>
+      <c r="G131" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="D132" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="D133" t="s">
+        <v>19</v>
+      </c>
+      <c r="G133" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" t="s">
+        <v>19</v>
+      </c>
+      <c r="D135" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" t="s">
+        <v>7</v>
+      </c>
+      <c r="G136" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" t="s">
+        <v>145</v>
+      </c>
+      <c r="D137" t="s">
+        <v>21</v>
+      </c>
+      <c r="G137" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="G138" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" t="s">
+        <v>21</v>
+      </c>
+      <c r="G139" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="D140" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="D141" t="s">
+        <v>24</v>
+      </c>
+      <c r="G141" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" t="s">
+        <v>7</v>
+      </c>
+      <c r="D142" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="s">
+        <v>24</v>
+      </c>
+      <c r="D143" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" t="s">
+        <v>7</v>
+      </c>
+      <c r="G144" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" t="s">
+        <v>146</v>
+      </c>
+      <c r="D145" t="s">
+        <v>26</v>
+      </c>
+      <c r="G145" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="G146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="s">
+        <v>26</v>
+      </c>
+      <c r="D147" t="s">
+        <v>84</v>
+      </c>
+      <c r="G147" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
+        <v>109</v>
+      </c>
+      <c r="D149" t="s">
+        <v>7</v>
+      </c>
+      <c r="G149" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="s">
+        <v>194</v>
+      </c>
+      <c r="D150" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="D151" t="s">
+        <v>7</v>
+      </c>
+      <c r="G151" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152" t="s">
+        <v>87</v>
+      </c>
+      <c r="G152" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" t="s">
+        <v>32</v>
+      </c>
+      <c r="G153" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" t="s">
+        <v>7</v>
+      </c>
+      <c r="D154" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" t="s">
+        <v>514</v>
+      </c>
+      <c r="G155" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="D156" t="s">
+        <v>89</v>
+      </c>
+      <c r="G156" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" t="s">
+        <v>34</v>
+      </c>
+      <c r="D157" t="s">
+        <v>90</v>
+      </c>
+      <c r="G157" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="D158" t="s">
+        <v>88</v>
+      </c>
+      <c r="G158" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" t="s">
+        <v>205</v>
+      </c>
+      <c r="D160" t="s">
+        <v>7</v>
+      </c>
+      <c r="G160" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" t="s">
+        <v>206</v>
+      </c>
+      <c r="D161" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
+        <v>128</v>
+      </c>
+      <c r="D162" t="s">
+        <v>7</v>
+      </c>
+      <c r="G162" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" t="s">
+        <v>124</v>
+      </c>
+      <c r="G163" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
+        <v>127</v>
+      </c>
+      <c r="D164" t="s">
+        <v>7</v>
+      </c>
+      <c r="G164" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" t="s">
+        <v>125</v>
+      </c>
+      <c r="D165" t="s">
+        <v>91</v>
+      </c>
+      <c r="G165" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" t="s">
+        <v>126</v>
+      </c>
+      <c r="D166" t="s">
+        <v>7</v>
+      </c>
+      <c r="G166" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" t="s">
+        <v>123</v>
+      </c>
+      <c r="G167" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" t="s">
+        <v>130</v>
+      </c>
+      <c r="D168" t="s">
+        <v>41</v>
+      </c>
+      <c r="G168" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" t="s">
+        <v>129</v>
+      </c>
+      <c r="G169" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="D170" t="s">
+        <v>92</v>
+      </c>
+      <c r="G170" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" t="s">
+        <v>7</v>
+      </c>
+      <c r="G171" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" t="s">
+        <v>40</v>
+      </c>
+      <c r="D172" t="s">
+        <v>47</v>
+      </c>
+      <c r="G172" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" t="s">
+        <v>7</v>
+      </c>
+      <c r="G173" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="G174" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" t="s">
+        <v>7</v>
+      </c>
+      <c r="D175" t="s">
+        <v>7</v>
+      </c>
+      <c r="G175" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" t="s">
+        <v>515</v>
+      </c>
+      <c r="D176" t="s">
+        <v>93</v>
+      </c>
+      <c r="G176" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" t="s">
+        <v>7</v>
+      </c>
+      <c r="D177" t="s">
+        <v>7</v>
+      </c>
+      <c r="G177" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="G178" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" t="s">
+        <v>41</v>
+      </c>
+      <c r="D179" t="s">
+        <v>50</v>
+      </c>
+      <c r="G179" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="G180" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" t="s">
+        <v>46</v>
+      </c>
+      <c r="D181" t="s">
+        <v>94</v>
+      </c>
+      <c r="G181" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="D183" t="s">
+        <v>56</v>
+      </c>
+      <c r="G183" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" t="s">
+        <v>47</v>
+      </c>
+      <c r="G184" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="G185" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="D186" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" t="s">
+        <v>7</v>
+      </c>
+      <c r="D187" t="s">
+        <v>95</v>
+      </c>
+      <c r="G187" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" t="s">
+        <v>516</v>
+      </c>
+      <c r="D188" t="s">
+        <v>7</v>
+      </c>
+      <c r="G188" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" t="s">
+        <v>7</v>
+      </c>
+      <c r="G189" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="D190" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" t="s">
+        <v>50</v>
+      </c>
+      <c r="G191" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="D192" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" t="s">
+        <v>134</v>
+      </c>
+      <c r="G193" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" t="s">
+        <v>224</v>
+      </c>
+      <c r="D194" t="s">
+        <v>66</v>
+      </c>
+      <c r="G194" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="G195" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="D197" t="s">
+        <v>7</v>
+      </c>
+      <c r="G197" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="D198" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" t="s">
+        <v>7</v>
+      </c>
+      <c r="D199" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" t="s">
+        <v>517</v>
+      </c>
+      <c r="G200" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" t="s">
+        <v>7</v>
+      </c>
+      <c r="D201" t="s">
+        <v>70</v>
+      </c>
+      <c r="G201" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="G202" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" t="s">
+        <v>60</v>
+      </c>
+      <c r="D203" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="G204" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" t="s">
+        <v>65</v>
+      </c>
+      <c r="D205" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" t="s">
+        <v>235</v>
+      </c>
+      <c r="G206" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="G207" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" t="s">
+        <v>66</v>
+      </c>
+      <c r="G208" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="G210" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" t="s">
+        <v>7</v>
+      </c>
+      <c r="G213" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="G214" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" t="s">
+        <v>70</v>
+      </c>
+      <c r="G215" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" t="s">
+        <v>139</v>
+      </c>
+      <c r="G217" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="G219" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" t="s">
+        <v>76</v>
+      </c>
+      <c r="G220" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="G221" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="G223" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="226" spans="7:7">
+      <c r="G226" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="7:7">
+      <c r="G227" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="228" spans="7:7">
+      <c r="G228" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="7:7">
+      <c r="G230" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="232" spans="7:7">
+      <c r="G232" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="233" spans="7:7">
+      <c r="G233" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="234" spans="7:7">
+      <c r="G234" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="236" spans="7:7">
+      <c r="G236" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
